--- a/datasets/20161003 pJP22mcherry 06.xlsx
+++ b/datasets/20161003 pJP22mcherry 06.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thmosqueiro/Desktop/igem2017/modeliGEM2016/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="final" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -369,7 +382,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,60 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,7 +462,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -569,12 +528,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -604,12 +563,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -816,12 +775,12 @@
   <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -840,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -848,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -856,7 +815,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -864,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -872,7 +831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -880,7 +839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -888,12 +847,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -911,7 +870,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -931,7 +890,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -951,12 +910,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -964,7 +923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -975,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -986,7 +945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -997,7 +956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1038,7 +997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1049,7 +1008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1060,7 +1019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1071,7 +1030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1079,12 +1038,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -1125,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -1166,7 +1125,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
@@ -1207,7 +1166,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1248,7 +1207,7 @@
         <v>4907</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
@@ -1289,7 +1248,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
@@ -1330,7 +1289,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1330,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
@@ -1412,7 +1371,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -1453,7 +1412,7 @@
         <v>18292</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1461,7 +1420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
@@ -1479,7 +1438,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -1497,7 +1456,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -1515,12 +1474,12 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1528,7 +1487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -1539,7 +1498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -1550,7 +1509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1561,7 +1520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -1583,7 +1542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -1602,7 +1561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -1613,7 +1572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -1624,7 +1583,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -1635,7 +1594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -1643,12 +1602,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>44</v>
       </c>
@@ -1689,7 +1648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>45</v>
       </c>
@@ -1730,7 +1689,7 @@
         <v>20955</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>46</v>
       </c>
@@ -1771,7 +1730,7 @@
         <v>14772</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>47</v>
       </c>
@@ -1812,7 +1771,7 @@
         <v>20606</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>48</v>
       </c>
@@ -1853,7 +1812,7 @@
         <v>20619</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
@@ -1894,7 +1853,7 @@
         <v>15686</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>50</v>
       </c>
@@ -1935,7 +1894,7 @@
         <v>14248</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>51</v>
       </c>
@@ -1976,7 +1935,7 @@
         <v>18769</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>52</v>
       </c>
@@ -2017,7 +1976,7 @@
         <v>27463</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -2025,7 +1984,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>55</v>
       </c>
@@ -2043,7 +2002,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>57</v>
       </c>
@@ -2061,7 +2020,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>55</v>
       </c>
@@ -2079,12 +2038,12 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>65</v>
       </c>
@@ -2103,7 +2062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -2114,7 +2073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -2122,7 +2081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -2133,7 +2092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -2141,12 +2100,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>44</v>
       </c>
@@ -2187,7 +2146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>45</v>
       </c>
@@ -2228,7 +2187,7 @@
         <v>9.0300001204013824E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>46</v>
       </c>
@@ -2269,7 +2228,7 @@
         <v>0.39759999513626099</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>47</v>
       </c>
@@ -2310,7 +2269,7 @@
         <v>9.7599998116493225E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>48</v>
       </c>
@@ -2351,7 +2310,7 @@
         <v>0.11999999731779099</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>49</v>
       </c>
@@ -2392,7 +2351,7 @@
         <v>0.36469998955726624</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>50</v>
       </c>
@@ -2433,7 +2392,7 @@
         <v>0.34470000863075256</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>51</v>
       </c>
@@ -2474,7 +2433,7 @@
         <v>0.10109999775886536</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>52</v>
       </c>
@@ -2515,7 +2474,7 @@
         <v>0.25940001010894775</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>53</v>
       </c>
@@ -2523,7 +2482,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>55</v>
       </c>
@@ -2541,7 +2500,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>57</v>
       </c>
@@ -2559,7 +2518,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>55</v>
       </c>
@@ -2577,12 +2536,12 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -2590,7 +2549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -2612,7 +2571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -2623,7 +2582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -2634,7 +2593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -2645,7 +2604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -2653,7 +2612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>34</v>
       </c>
@@ -2664,7 +2623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -2675,7 +2634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -2686,7 +2645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -2697,7 +2656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -2705,12 +2664,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>44</v>
       </c>
@@ -2751,7 +2710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>45</v>
       </c>
@@ -2792,7 +2751,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>46</v>
       </c>
@@ -2833,7 +2792,7 @@
         <v>11268</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>47</v>
       </c>
@@ -2874,7 +2833,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>48</v>
       </c>
@@ -2915,7 +2874,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>49</v>
       </c>
@@ -2956,7 +2915,7 @@
         <v>7088</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>50</v>
       </c>
@@ -2997,7 +2956,7 @@
         <v>10603</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>51</v>
       </c>
@@ -3038,7 +2997,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>52</v>
       </c>
@@ -3079,7 +3038,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -3111,7 +3070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
